--- a/TestData/Book2.xlsx
+++ b/TestData/Book2.xlsx
@@ -32,10 +32,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>vcpatil457@gmail.com</t>
+    <t>7066127856</t>
   </si>
   <si>
-    <t>VCP@1990</t>
+    <t>Patil@1990</t>
   </si>
 </sst>
 </file>
@@ -80,9 +80,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -367,7 +370,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,7 +382,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -393,8 +396,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" display="VCP@1990"/>
+    <hyperlink ref="B1" r:id="rId2" display="vcpatil457@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
